--- a/2-Autoencoder.xlsx
+++ b/2-Autoencoder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79393309-F1F7-4BBD-9348-010DE04E2A1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2746D8D-8F54-476F-8282-05E30959CF02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19596" windowHeight="6876" xr2:uid="{99A690A1-DC36-4BE8-91E6-05B30DF3FF00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="89">
   <si>
     <t>Input (168x192)</t>
   </si>
@@ -658,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -747,25 +747,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,7 +786,28 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,11 +816,11 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +948,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95B20431-2F3E-41C3-9AC7-159AD65B76C1}" name="Table1" displayName="Table1" ref="A2:X50" totalsRowShown="0">
-  <autoFilter ref="A2:X50" xr:uid="{25EC06B5-7BE5-45AB-AB2D-042D27E65A83}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95B20431-2F3E-41C3-9AC7-159AD65B76C1}" name="Table1" displayName="Table1" ref="A2:X43" totalsRowShown="0">
+  <autoFilter ref="A2:X43" xr:uid="{25EC06B5-7BE5-45AB-AB2D-042D27E65A83}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{318840A2-746A-4FAB-83D3-41719547BE37}" name="subjects" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{0E806CA2-B16E-4541-973E-8F727A98A57A}" name="per_each" dataDxfId="14"/>
@@ -1320,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A51B62-3CE9-4597-806B-508E76E74799}">
   <dimension ref="A1:BN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,93 +1395,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="53" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="62" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="63"/>
-      <c r="V1" s="67" t="s">
+      <c r="U1" s="64"/>
+      <c r="V1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="AC1" s="53" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="AC1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="55" t="s">
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="65" t="s">
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AS1" s="53" t="s">
+      <c r="AQ1" s="69"/>
+      <c r="AS1" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="66" t="s">
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="56" t="s">
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="57" t="s">
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="58" t="s">
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
       <c r="BK1" t="s">
         <v>81</v>
       </c>
@@ -1575,8 +1599,8 @@
       <c r="AO2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
       <c r="AS2" t="s">
         <v>51</v>
       </c>
@@ -3238,11 +3262,11 @@
         <f t="shared" si="7"/>
         <v>0.98581560283687908</v>
       </c>
-      <c r="BK11" s="52" t="s">
+      <c r="BK11" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
+      <c r="BL11" s="69"/>
+      <c r="BM11" s="69"/>
       <c r="BN11" s="27"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.3">
@@ -3425,9 +3449,9 @@
         <f t="shared" si="7"/>
         <v>0.98652482269503528</v>
       </c>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
+      <c r="BK12" s="69"/>
+      <c r="BL12" s="69"/>
+      <c r="BM12" s="69"/>
       <c r="BN12" s="27"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.3">
@@ -3553,9 +3577,9 @@
       <c r="AP13" t="s">
         <v>80</v>
       </c>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52"/>
-      <c r="BM13" s="52"/>
+      <c r="BK13" s="69"/>
+      <c r="BL13" s="69"/>
+      <c r="BM13" s="69"/>
       <c r="BN13" s="27"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
@@ -3681,9 +3705,9 @@
       <c r="AP14" t="s">
         <v>47</v>
       </c>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="52"/>
-      <c r="BM14" s="52"/>
+      <c r="BK14" s="69"/>
+      <c r="BL14" s="69"/>
+      <c r="BM14" s="69"/>
       <c r="BN14" s="27"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
@@ -5480,16 +5504,16 @@
       <c r="H31" s="4">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="52">
         <v>0.08</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="53">
         <v>101</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="54">
         <v>2.6032142341136902E-3</v>
       </c>
       <c r="M31" s="11" t="s">
@@ -5501,13 +5525,13 @@
       <c r="O31" s="11">
         <v>1E-3</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="31">
         <v>101</v>
       </c>
       <c r="S31" s="4">
@@ -5536,7 +5560,7 @@
       <c r="AG31" s="20"/>
       <c r="AK31" s="20"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>38</v>
       </c>
@@ -5562,16 +5586,16 @@
       <c r="H32" s="8">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="55">
         <v>0.08</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="56">
         <v>10001</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="57">
         <v>2.3053798358887399E-3</v>
       </c>
       <c r="M32" s="10" t="s">
@@ -5583,13 +5607,13 @@
       <c r="O32" s="10">
         <v>1E-3</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="38">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="40">
         <v>1001</v>
       </c>
       <c r="S32" s="8">
@@ -5674,10 +5698,10 @@
       <c r="S33" s="4">
         <v>1.27289514057338E-3</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="41">
         <v>18</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="42">
         <v>6</v>
       </c>
       <c r="V33">
@@ -5753,10 +5777,10 @@
       <c r="S34" s="8">
         <v>1.27289514057338E-3</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="43">
         <v>18</v>
       </c>
-      <c r="U34" s="16">
+      <c r="U34" s="44">
         <v>16</v>
       </c>
       <c r="V34">
@@ -5832,8 +5856,21 @@
       <c r="S35" s="4">
         <v>1.27289514057338E-3</v>
       </c>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
+      <c r="T35" s="45">
+        <v>18</v>
+      </c>
+      <c r="U35" s="46">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>0.95914893617021202</v>
+      </c>
+      <c r="W35">
+        <v>0.98979434758557905</v>
+      </c>
+      <c r="X35">
+        <v>0.96212114731615295</v>
+      </c>
       <c r="AB35"/>
       <c r="AF35"/>
       <c r="AG35" s="20"/>
@@ -5898,8 +5935,21 @@
       <c r="S36" s="8">
         <v>1.27289514057338E-3</v>
       </c>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
+      <c r="T36" s="43">
+        <v>18</v>
+      </c>
+      <c r="U36" s="44">
+        <v>18</v>
+      </c>
+      <c r="V36">
+        <v>0.96042553191489299</v>
+      </c>
+      <c r="W36">
+        <v>0.98981952178474397</v>
+      </c>
+      <c r="X36">
+        <v>0.96194736695197103</v>
+      </c>
       <c r="AB36"/>
       <c r="AF36"/>
       <c r="AG36" s="20"/>
@@ -5931,10 +5981,18 @@
       <c r="H37" s="4">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="4"/>
+      <c r="I37" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="22">
+        <v>10001</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2.3053798358887399E-3</v>
+      </c>
       <c r="M37" s="11" t="s">
         <v>20</v>
       </c>
@@ -5944,12 +6002,33 @@
       <c r="O37" s="11">
         <v>1E-3</v>
       </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
+      <c r="P37" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R37" s="11">
+        <v>1001</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1.27289514057338E-3</v>
+      </c>
+      <c r="T37" s="45">
+        <v>16</v>
+      </c>
+      <c r="U37" s="46">
+        <v>16</v>
+      </c>
+      <c r="V37">
+        <v>0.98765957446808506</v>
+      </c>
+      <c r="W37">
+        <v>0.98955904552621898</v>
+      </c>
+      <c r="X37">
+        <v>0.97714596851658597</v>
+      </c>
       <c r="AB37"/>
       <c r="AF37"/>
       <c r="AG37" s="20"/>
@@ -5981,10 +6060,18 @@
       <c r="H38" s="8">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="8"/>
+      <c r="I38" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="22">
+        <v>10001</v>
+      </c>
+      <c r="L38" s="8">
+        <v>2.3053798358887399E-3</v>
+      </c>
       <c r="M38" s="10" t="s">
         <v>20</v>
       </c>
@@ -5994,12 +6081,33 @@
       <c r="O38" s="10">
         <v>1E-3</v>
       </c>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
+      <c r="P38" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R38" s="10">
+        <v>1001</v>
+      </c>
+      <c r="S38" s="8">
+        <v>1.27289514057338E-3</v>
+      </c>
+      <c r="T38" s="43">
+        <v>20</v>
+      </c>
+      <c r="U38" s="44">
+        <v>16</v>
+      </c>
+      <c r="V38">
+        <v>0.99872340425531902</v>
+      </c>
+      <c r="W38">
+        <v>0.99817514613986102</v>
+      </c>
+      <c r="X38">
+        <v>0.99732966557213898</v>
+      </c>
       <c r="AB38"/>
       <c r="AF38"/>
       <c r="AG38" s="20"/>
@@ -6031,10 +6139,18 @@
       <c r="H39" s="4">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="4"/>
+      <c r="I39" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39" s="22">
+        <v>10001</v>
+      </c>
+      <c r="L39" s="4">
+        <v>2.3053798358887399E-3</v>
+      </c>
       <c r="M39" s="11" t="s">
         <v>20</v>
       </c>
@@ -6044,12 +6160,33 @@
       <c r="O39" s="11">
         <v>1E-3</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
+      <c r="P39" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R39" s="11">
+        <v>1001</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1.27289514057338E-3</v>
+      </c>
+      <c r="T39" s="45">
+        <v>22</v>
+      </c>
+      <c r="U39" s="46">
+        <v>16</v>
+      </c>
+      <c r="V39">
+        <v>0.95617021276595704</v>
+      </c>
+      <c r="W39">
+        <v>0.98694173763647397</v>
+      </c>
+      <c r="X39">
+        <v>0.95676194111851498</v>
+      </c>
       <c r="AB39"/>
       <c r="AF39"/>
       <c r="AG39" s="20"/>
@@ -6081,10 +6218,18 @@
       <c r="H40" s="8">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="8"/>
+      <c r="I40" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="22">
+        <v>10001</v>
+      </c>
+      <c r="L40" s="8">
+        <v>2.3053798358887399E-3</v>
+      </c>
       <c r="M40" s="10" t="s">
         <v>20</v>
       </c>
@@ -6094,12 +6239,33 @@
       <c r="O40" s="10">
         <v>1E-3</v>
       </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
+      <c r="P40" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R40" s="10">
+        <v>1001</v>
+      </c>
+      <c r="S40" s="8">
+        <v>1.27289514057338E-3</v>
+      </c>
+      <c r="T40" s="43">
+        <v>19</v>
+      </c>
+      <c r="U40" s="44">
+        <v>16</v>
+      </c>
+      <c r="V40">
+        <v>0.95914893617021202</v>
+      </c>
+      <c r="W40">
+        <v>0.99003194636358205</v>
+      </c>
+      <c r="X40">
+        <v>0.96274945878929896</v>
+      </c>
       <c r="AB40"/>
       <c r="AF40"/>
       <c r="AG40" s="20"/>
@@ -6131,10 +6297,18 @@
       <c r="H41" s="4">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="4"/>
+      <c r="I41" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="22">
+        <v>10001</v>
+      </c>
+      <c r="L41" s="4">
+        <v>2.3053798358887399E-3</v>
+      </c>
       <c r="M41" s="11" t="s">
         <v>20</v>
       </c>
@@ -6144,12 +6318,33 @@
       <c r="O41" s="11">
         <v>1E-3</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
+      <c r="P41" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R41" s="11">
+        <v>1001</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1.27289514057338E-3</v>
+      </c>
+      <c r="T41" s="45">
+        <v>20</v>
+      </c>
+      <c r="U41" s="46">
+        <v>18</v>
+      </c>
+      <c r="V41">
+        <v>0.95106382978723403</v>
+      </c>
+      <c r="W41">
+        <v>0.98312447933110003</v>
+      </c>
+      <c r="X41">
+        <v>0.94862178622500504</v>
+      </c>
       <c r="AB41"/>
       <c r="AF41"/>
       <c r="AG41" s="20"/>
@@ -6181,10 +6376,18 @@
       <c r="H42" s="8">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="8"/>
+      <c r="I42" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="22">
+        <v>10001</v>
+      </c>
+      <c r="L42" s="8">
+        <v>2.3053798358887399E-3</v>
+      </c>
       <c r="M42" s="10" t="s">
         <v>20</v>
       </c>
@@ -6194,18 +6397,39 @@
       <c r="O42" s="10">
         <v>1E-3</v>
       </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
+      <c r="P42" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R42" s="10">
+        <v>1001</v>
+      </c>
+      <c r="S42" s="8">
+        <v>1.27289514057338E-3</v>
+      </c>
+      <c r="T42" s="43">
+        <v>20</v>
+      </c>
+      <c r="U42" s="44">
+        <v>14</v>
+      </c>
+      <c r="V42">
+        <v>0.95787234042553104</v>
+      </c>
+      <c r="W42">
+        <v>0.98912713896856097</v>
+      </c>
+      <c r="X42">
+        <v>0.96093547641863397</v>
+      </c>
       <c r="AB42"/>
       <c r="AF42"/>
       <c r="AG42" s="20"/>
       <c r="AK42" s="20"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -6231,10 +6455,18 @@
       <c r="H43" s="4">
         <v>0.99617021276595696</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="4"/>
+      <c r="I43" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="22">
+        <v>10001</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2.3053798358887399E-3</v>
+      </c>
       <c r="M43" s="11" t="s">
         <v>20</v>
       </c>
@@ -6244,362 +6476,75 @@
       <c r="O43" s="11">
         <v>1E-3</v>
       </c>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
+      <c r="P43" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R43" s="11">
+        <v>1001</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1.27289514057338E-3</v>
+      </c>
+      <c r="T43" s="75">
+        <v>19.5</v>
+      </c>
+      <c r="U43" s="76">
+        <v>16</v>
+      </c>
+      <c r="V43">
+        <v>0.99872340425531902</v>
+      </c>
+      <c r="W43">
+        <v>0.99817514613986102</v>
+      </c>
+      <c r="X43">
+        <v>0.99732966557213898</v>
+      </c>
       <c r="AB43"/>
       <c r="AF43"/>
       <c r="AG43" s="20"/>
       <c r="AK43" s="20"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>38</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="8">
-        <f>MIN(Table1[[#This Row],[per_each]],64)*Table1[[#This Row],[subjects]]</f>
-        <v>2432</v>
-      </c>
-      <c r="D44" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="13">
-        <v>20</v>
-      </c>
-      <c r="G44" s="13">
-        <v>6</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0.99617021276595696</v>
-      </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="O44" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
       <c r="AB44"/>
       <c r="AF44"/>
       <c r="AG44" s="20"/>
       <c r="AK44" s="20"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>38</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4">
-        <f>MIN(Table1[[#This Row],[per_each]],64)*Table1[[#This Row],[subjects]]</f>
-        <v>2432</v>
-      </c>
-      <c r="D45" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="12">
-        <v>20</v>
-      </c>
-      <c r="G45" s="12">
-        <v>6</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0.99617021276595696</v>
-      </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="O45" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
       <c r="AB45"/>
       <c r="AF45"/>
       <c r="AG45" s="20"/>
       <c r="AK45" s="20"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>38</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="8">
-        <f>MIN(Table1[[#This Row],[per_each]],64)*Table1[[#This Row],[subjects]]</f>
-        <v>2432</v>
-      </c>
-      <c r="D46" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="13">
-        <v>20</v>
-      </c>
-      <c r="G46" s="13">
-        <v>6</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0.99617021276595696</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="O46" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
       <c r="AB46"/>
       <c r="AF46"/>
       <c r="AG46" s="20"/>
       <c r="AK46" s="20"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4">
-        <f>MIN(Table1[[#This Row],[per_each]],64)*Table1[[#This Row],[subjects]]</f>
-        <v>2432</v>
-      </c>
-      <c r="D47" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="12">
-        <v>20</v>
-      </c>
-      <c r="G47" s="12">
-        <v>6</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0.99617021276595696</v>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="O47" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
       <c r="AB47"/>
       <c r="AF47"/>
       <c r="AG47" s="20"/>
       <c r="AK47" s="20"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>38</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="8">
-        <f>MIN(Table1[[#This Row],[per_each]],64)*Table1[[#This Row],[subjects]]</f>
-        <v>2432</v>
-      </c>
-      <c r="D48" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="13">
-        <v>20</v>
-      </c>
-      <c r="G48" s="13">
-        <v>6</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0.99617021276595696</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="O48" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
       <c r="AB48"/>
       <c r="AF48"/>
       <c r="AG48" s="20"/>
       <c r="AK48" s="20"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>38</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4">
-        <f>MIN(Table1[[#This Row],[per_each]],64)*Table1[[#This Row],[subjects]]</f>
-        <v>2432</v>
-      </c>
-      <c r="D49" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="12">
-        <v>20</v>
-      </c>
-      <c r="G49" s="12">
-        <v>6</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0.99617021276595696</v>
-      </c>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="O49" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
+    <row r="49" spans="28:37" x14ac:dyDescent="0.3">
       <c r="AB49"/>
       <c r="AF49"/>
       <c r="AG49" s="20"/>
       <c r="AK49" s="20"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>38</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="8">
-        <f>MIN(Table1[[#This Row],[per_each]],64)*Table1[[#This Row],[subjects]]</f>
-        <v>2432</v>
-      </c>
-      <c r="D50" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="13">
-        <v>20</v>
-      </c>
-      <c r="G50" s="13">
-        <v>6</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0.99617021276595696</v>
-      </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="O50" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
+    <row r="50" spans="28:37" x14ac:dyDescent="0.3">
       <c r="AB50"/>
       <c r="AF50"/>
       <c r="AG50" s="20"/>
@@ -6607,12 +6552,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="I1:L1"/>
     <mergeCell ref="BK11:BM14"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AM1"/>
@@ -6623,8 +6562,14 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="V3:V50">
+  <conditionalFormatting sqref="V3:V43">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6636,7 +6581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W50">
+  <conditionalFormatting sqref="W3:W43">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6648,7 +6593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X50">
+  <conditionalFormatting sqref="X3:X43">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>

--- a/2-Autoencoder.xlsx
+++ b/2-Autoencoder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2746D8D-8F54-476F-8282-05E30959CF02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFD9383-9227-47D3-AB74-0EDE278E10CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19596" windowHeight="6876" xr2:uid="{99A690A1-DC36-4BE8-91E6-05B30DF3FF00}"/>
   </bookViews>
@@ -765,6 +765,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,41 +819,8 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A51B62-3CE9-4597-806B-508E76E74799}">
   <dimension ref="A1:BN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,93 +1395,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="67" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="65" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="63" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="64"/>
-      <c r="V1" s="58" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="AC1" s="67" t="s">
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="AC1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="65" t="s">
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="73" t="s">
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="69" t="s">
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="69"/>
-      <c r="AS1" s="67" t="s">
+      <c r="AQ1" s="60"/>
+      <c r="AS1" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="74" t="s">
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="70" t="s">
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="71" t="s">
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="72" t="s">
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
       <c r="BK1" t="s">
         <v>81</v>
       </c>
@@ -1599,8 +1599,8 @@
       <c r="AO2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
       <c r="AS2" t="s">
         <v>51</v>
       </c>
@@ -3262,11 +3262,11 @@
         <f t="shared" si="7"/>
         <v>0.98581560283687908</v>
       </c>
-      <c r="BK11" s="69" t="s">
+      <c r="BK11" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="BL11" s="69"/>
-      <c r="BM11" s="69"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
       <c r="BN11" s="27"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.3">
@@ -3449,9 +3449,9 @@
         <f t="shared" si="7"/>
         <v>0.98652482269503528</v>
       </c>
-      <c r="BK12" s="69"/>
-      <c r="BL12" s="69"/>
-      <c r="BM12" s="69"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="60"/>
       <c r="BN12" s="27"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.3">
@@ -3577,9 +3577,9 @@
       <c r="AP13" t="s">
         <v>80</v>
       </c>
-      <c r="BK13" s="69"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
+      <c r="BK13" s="60"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="60"/>
       <c r="BN13" s="27"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
@@ -3705,9 +3705,9 @@
       <c r="AP14" t="s">
         <v>47</v>
       </c>
-      <c r="BK14" s="69"/>
-      <c r="BL14" s="69"/>
-      <c r="BM14" s="69"/>
+      <c r="BK14" s="60"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="60"/>
       <c r="BN14" s="27"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
@@ -6488,10 +6488,10 @@
       <c r="S43" s="4">
         <v>1.27289514057338E-3</v>
       </c>
-      <c r="T43" s="75">
+      <c r="T43" s="58">
         <v>19.5</v>
       </c>
-      <c r="U43" s="76">
+      <c r="U43" s="59">
         <v>16</v>
       </c>
       <c r="V43">
@@ -6552,6 +6552,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="BK11:BM14"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AM1"/>
@@ -6562,12 +6568,6 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="V3:V43">
     <cfRule type="colorScale" priority="10">

--- a/2-Autoencoder.xlsx
+++ b/2-Autoencoder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFD9383-9227-47D3-AB74-0EDE278E10CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D33AC75-0A06-4251-8359-394DD969D9AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19596" windowHeight="6876" xr2:uid="{99A690A1-DC36-4BE8-91E6-05B30DF3FF00}"/>
   </bookViews>
@@ -246,12 +246,6 @@
     <t>AE acc-a</t>
   </si>
   <si>
-    <t>AE acc1-a</t>
-  </si>
-  <si>
-    <t>AE acc2-a</t>
-  </si>
-  <si>
     <t>SSC acc-a</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>&lt; Normalization, lr decay</t>
+  </si>
+  <si>
+    <t>AE loss2-a</t>
+  </si>
+  <si>
+    <t>AE loss1-a</t>
   </si>
 </sst>
 </file>
@@ -771,33 +771,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,7 +792,34 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1031,10 +1031,10 @@
     <tableColumn id="15" xr3:uid="{CCB6022A-1D3D-4803-8A50-023BB1DC67E9}" name="SSC acc-a" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(BC3,AY3,AU3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1B126A4C-E690-48C0-B717-D551F399C15D}" name="AE acc1-a">
+    <tableColumn id="16" xr3:uid="{1B126A4C-E690-48C0-B717-D551F399C15D}" name="AE loss1-a">
       <calculatedColumnFormula>AVERAGE(BD3,AZ3,AV3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6D1C7425-06AF-402B-AB98-C1DC2060838F}" name="AE acc2-a">
+    <tableColumn id="17" xr3:uid="{6D1C7425-06AF-402B-AB98-C1DC2060838F}" name="AE loss2-a">
       <calculatedColumnFormula>AVERAGE(BE3,BA3,AW3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{4128D318-80AD-48F5-B69E-5C9089562CCF}" name="AE acc-a">
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A51B62-3CE9-4597-806B-508E76E74799}">
   <dimension ref="A1:BN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,95 +1395,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="61" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="74" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="69" t="s">
+      <c r="U1" s="66"/>
+      <c r="V1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="AC1" s="61" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="AC1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63" t="s">
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="67" t="s">
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ1" s="60"/>
-      <c r="AS1" s="61" t="s">
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ1" s="71"/>
+      <c r="AS1" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="68" t="s">
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="66" t="s">
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
       <c r="BK1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1515,7 +1515,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>44</v>
@@ -1536,7 +1536,7 @@
         <v>43</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>25</v>
@@ -1570,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG2" s="49" t="s">
         <v>15</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>27</v>
@@ -1599,8 +1599,8 @@
       <c r="AO2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
       <c r="AS2" t="s">
         <v>51</v>
       </c>
@@ -1644,13 +1644,13 @@
         <v>71</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>72</v>
@@ -1707,7 +1707,7 @@
         <v>2E-3</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R3" s="31">
         <v>5000</v>
@@ -1741,7 +1741,7 @@
         <v>30</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="17">
         <v>1.06284415721893</v>
@@ -1757,7 +1757,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL3">
         <v>0.61871170997619596</v>
@@ -1887,7 +1887,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R4" s="34">
         <v>100</v>
@@ -1921,7 +1921,7 @@
         <v>1E-4</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG4" s="17">
         <v>0.97618174552917403</v>
@@ -1937,7 +1937,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL4">
         <v>0.86546117067337003</v>
@@ -2067,7 +2067,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R5" s="37">
         <v>1000</v>
@@ -2101,7 +2101,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG5" s="17">
         <v>0.94757336378097501</v>
@@ -2117,7 +2117,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL5">
         <v>0.830566346645355</v>
@@ -2243,7 +2243,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R6" s="40">
         <v>250</v>
@@ -2277,7 +2277,7 @@
         <v>0.01</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG6" s="17">
         <v>0.77622359991073597</v>
@@ -2293,7 +2293,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL6">
         <v>0.54591566324233998</v>
@@ -2420,7 +2420,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R7" s="11">
         <v>10000</v>
@@ -2454,7 +2454,7 @@
         <v>0.1</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG7" s="17">
         <v>0.40574073791503901</v>
@@ -2470,7 +2470,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL7">
         <v>0.21728764474391901</v>
@@ -2597,7 +2597,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R8" s="10">
         <v>10000</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG8" s="17">
         <v>2.03567290306091</v>
@@ -2648,7 +2648,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL8">
         <v>1.2812139987945499</v>
@@ -2776,7 +2776,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R9" s="11">
         <v>2501</v>
@@ -2810,7 +2810,7 @@
         <v>1E-4</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG9" s="17">
         <v>0.76515787839889504</v>
@@ -2827,7 +2827,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL9">
         <v>0.502516388893127</v>
@@ -2955,7 +2955,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R10" s="10">
         <v>2501</v>
@@ -2989,7 +2989,7 @@
         <v>0.01</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG10" s="17">
         <v>0.116806492209434</v>
@@ -3006,7 +3006,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL10">
         <v>8.8321387767791706E-2</v>
@@ -3134,7 +3134,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R11" s="11">
         <v>2501</v>
@@ -3168,7 +3168,7 @@
         <v>0.1</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG11" s="17">
         <v>0.169339150190353</v>
@@ -3185,7 +3185,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL11">
         <v>8.8321387767791706E-2</v>
@@ -3262,11 +3262,11 @@
         <f t="shared" si="7"/>
         <v>0.98581560283687908</v>
       </c>
-      <c r="BK11" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
+      <c r="BK11" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL11" s="71"/>
+      <c r="BM11" s="71"/>
       <c r="BN11" s="27"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.3">
@@ -3321,7 +3321,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R12" s="10">
         <v>2501</v>
@@ -3355,7 +3355,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG12" s="17">
         <v>0.10980663448572101</v>
@@ -3372,7 +3372,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL12">
         <v>7.5686052441596902E-2</v>
@@ -3449,9 +3449,9 @@
         <f t="shared" si="7"/>
         <v>0.98652482269503528</v>
       </c>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="60"/>
-      <c r="BM12" s="60"/>
+      <c r="BK12" s="71"/>
+      <c r="BL12" s="71"/>
+      <c r="BM12" s="71"/>
       <c r="BN12" s="27"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.3">
@@ -3506,7 +3506,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R13" s="11">
         <v>2501</v>
@@ -3540,7 +3540,7 @@
         <v>0.01</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG13" s="50">
         <v>4.2363787069916699E-3</v>
@@ -3557,7 +3557,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL13">
         <v>2.1435529924929099E-3</v>
@@ -3575,11 +3575,11 @@
         <v>306</v>
       </c>
       <c r="AP13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK13" s="60"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="60"/>
+        <v>78</v>
+      </c>
+      <c r="BK13" s="71"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="71"/>
       <c r="BN13" s="27"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
@@ -3634,7 +3634,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R14" s="10">
         <v>2501</v>
@@ -3668,7 +3668,7 @@
         <v>0.01</v>
       </c>
       <c r="AF14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG14" s="51">
         <v>3.0917357653379401E-3</v>
@@ -3685,7 +3685,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="AK14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL14">
         <v>2.21275491639971E-3</v>
@@ -3705,9 +3705,9 @@
       <c r="AP14" t="s">
         <v>47</v>
       </c>
-      <c r="BK14" s="60"/>
-      <c r="BL14" s="60"/>
-      <c r="BM14" s="60"/>
+      <c r="BK14" s="71"/>
+      <c r="BL14" s="71"/>
+      <c r="BM14" s="71"/>
       <c r="BN14" s="27"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
@@ -3762,7 +3762,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R15" s="11">
         <v>2501</v>
@@ -3796,7 +3796,7 @@
         <v>0.01</v>
       </c>
       <c r="AF15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG15" s="17">
         <v>1.82713533286005E-3</v>
@@ -3813,7 +3813,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL15">
         <v>1.4156684046611101E-3</v>
@@ -3883,7 +3883,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R16" s="10">
         <v>2501</v>
@@ -3917,7 +3917,7 @@
         <v>0.01</v>
       </c>
       <c r="AF16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG16" s="17">
         <v>1.7737977905198899E-3</v>
@@ -3934,7 +3934,7 @@
         <v>4.8828125E-4</v>
       </c>
       <c r="AK16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AL16">
         <v>1.5408241888508201E-3</v>
@@ -4004,7 +4004,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R17" s="11">
         <v>2501</v>
@@ -4038,7 +4038,7 @@
         <v>0.1</v>
       </c>
       <c r="AF17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG17" s="17">
         <v>3.7676955107599401E-3</v>
@@ -4054,7 +4054,7 @@
         <v>0.01</v>
       </c>
       <c r="AK17" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL17">
         <v>1.74979248549789E-3</v>
@@ -4072,7 +4072,7 @@
         <v>307</v>
       </c>
       <c r="AP17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
@@ -4127,7 +4127,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R18" s="10">
         <v>2501</v>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG18" s="17">
         <v>0.943628549575805</v>
@@ -4177,7 +4177,7 @@
         <v>0.1</v>
       </c>
       <c r="AK18" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL18" s="17">
         <v>0.29615589976310702</v>
@@ -4247,7 +4247,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R19" s="11">
         <v>2501</v>
@@ -4281,7 +4281,7 @@
         <v>0.01</v>
       </c>
       <c r="AF19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG19" s="17">
         <v>0.38957080245018</v>
@@ -4297,7 +4297,7 @@
         <v>1E-3</v>
       </c>
       <c r="AK19" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL19" s="17">
         <v>7.6804973185062395E-2</v>
@@ -4367,7 +4367,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R20" s="10">
         <v>2501</v>
@@ -4401,7 +4401,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG20" s="17">
         <v>0.292814701795578</v>
@@ -4417,7 +4417,7 @@
         <v>0.02</v>
       </c>
       <c r="AK20" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL20">
         <v>1.6589937731623601E-2</v>
@@ -4487,7 +4487,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R21" s="11">
         <v>2501</v>
@@ -4521,7 +4521,7 @@
         <v>0.05</v>
       </c>
       <c r="AF21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG21" s="17">
         <v>7.7175586484372598E-3</v>
@@ -4537,7 +4537,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AK21" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL21">
         <v>1.9574942998587998E-3</v>
@@ -4607,7 +4607,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R22" s="10">
         <v>10001</v>
@@ -4641,7 +4641,7 @@
         <v>0.08</v>
       </c>
       <c r="AF22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG22" s="17">
         <v>3.3260434865951499E-3</v>
@@ -4657,7 +4657,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AK22" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL22">
         <v>1.74476066604256E-3</v>
@@ -4727,7 +4727,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R23" s="11">
         <v>10001</v>
@@ -4761,7 +4761,7 @@
         <v>0.08</v>
       </c>
       <c r="AF23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG23" s="17">
         <v>2.1911789663136001E-3</v>
@@ -4777,7 +4777,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AK23" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL23">
         <v>1.74522388260811E-3</v>
@@ -4847,7 +4847,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R24" s="10">
         <v>10001</v>
@@ -4880,7 +4880,7 @@
         <v>0.08</v>
       </c>
       <c r="AF24" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG24" s="17">
         <v>7.3972996324300697E-3</v>
@@ -4896,7 +4896,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="AK24" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL24">
         <v>1.76718190778046E-3</v>
@@ -4966,7 +4966,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R25" s="11">
         <v>10001</v>
@@ -5000,7 +5000,7 @@
         <v>0.08</v>
       </c>
       <c r="AF25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG25" s="17">
         <v>2.6032142341136902E-3</v>
@@ -5016,7 +5016,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AK25" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL25">
         <v>1.7430525040253899E-3</v>
@@ -5086,7 +5086,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R26" s="10">
         <v>10001</v>
@@ -5120,7 +5120,7 @@
         <v>0.08</v>
       </c>
       <c r="AF26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG26" s="17">
         <v>2.3053798358887399E-3</v>
@@ -5137,7 +5137,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="AK26" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AL26">
         <v>1.27289514057338E-3</v>
@@ -5207,7 +5207,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R27" s="11">
         <v>10001</v>
@@ -5287,7 +5287,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R28" s="10">
         <v>10001</v>
@@ -5345,7 +5345,7 @@
         <v>1E-3</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K29" s="22">
         <v>10001</v>
@@ -5367,7 +5367,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R29" s="11">
         <v>2501</v>
@@ -5428,7 +5428,7 @@
         <v>1E-3</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" s="22">
         <v>10001</v>
@@ -5450,7 +5450,7 @@
         <v>9.765625E-4</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R30" s="10">
         <v>2501</v>
@@ -5508,7 +5508,7 @@
         <v>0.08</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K31" s="53">
         <v>101</v>
@@ -5529,7 +5529,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q31" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R31" s="31">
         <v>101</v>
@@ -5553,7 +5553,7 @@
         <v>0.97027521375973602</v>
       </c>
       <c r="Y31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB31"/>
       <c r="AF31"/>
@@ -5590,7 +5590,7 @@
         <v>0.08</v>
       </c>
       <c r="J32" s="56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K32" s="56">
         <v>10001</v>
@@ -5611,7 +5611,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q32" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R32" s="40">
         <v>1001</v>
@@ -5669,7 +5669,7 @@
         <v>0.08</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K33" s="22">
         <v>10001</v>
@@ -5690,7 +5690,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R33" s="11">
         <v>1001</v>
@@ -5748,7 +5748,7 @@
         <v>0.08</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K34" s="22">
         <v>10001</v>
@@ -5769,7 +5769,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R34" s="10">
         <v>1001</v>
@@ -5827,7 +5827,7 @@
         <v>0.08</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K35" s="22">
         <v>10001</v>
@@ -5848,7 +5848,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R35" s="11">
         <v>1001</v>
@@ -5906,7 +5906,7 @@
         <v>0.08</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" s="22">
         <v>10001</v>
@@ -5927,7 +5927,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R36" s="10">
         <v>1001</v>
@@ -5985,7 +5985,7 @@
         <v>0.08</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K37" s="22">
         <v>10001</v>
@@ -6006,7 +6006,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R37" s="11">
         <v>1001</v>
@@ -6064,7 +6064,7 @@
         <v>0.08</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K38" s="22">
         <v>10001</v>
@@ -6085,7 +6085,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R38" s="10">
         <v>1001</v>
@@ -6143,7 +6143,7 @@
         <v>0.08</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K39" s="22">
         <v>10001</v>
@@ -6164,7 +6164,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R39" s="11">
         <v>1001</v>
@@ -6222,7 +6222,7 @@
         <v>0.08</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K40" s="22">
         <v>10001</v>
@@ -6243,7 +6243,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R40" s="10">
         <v>1001</v>
@@ -6301,7 +6301,7 @@
         <v>0.08</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K41" s="22">
         <v>10001</v>
@@ -6322,7 +6322,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R41" s="11">
         <v>1001</v>
@@ -6380,7 +6380,7 @@
         <v>0.08</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K42" s="22">
         <v>10001</v>
@@ -6401,7 +6401,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R42" s="10">
         <v>1001</v>
@@ -6459,7 +6459,7 @@
         <v>0.08</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K43" s="22">
         <v>10001</v>
@@ -6480,7 +6480,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R43" s="11">
         <v>1001</v>
@@ -6552,12 +6552,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="I1:L1"/>
     <mergeCell ref="BK11:BM14"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AM1"/>
@@ -6568,6 +6562,12 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="V3:V43">
     <cfRule type="colorScale" priority="10">

--- a/2-Autoencoder.xlsx
+++ b/2-Autoencoder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D33AC75-0A06-4251-8359-394DD969D9AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E05253-131C-42CF-9E0B-F7D84F2EA126}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19596" windowHeight="6876" xr2:uid="{99A690A1-DC36-4BE8-91E6-05B30DF3FF00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="90">
   <si>
     <t>Input (168x192)</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>AE loss1-a</t>
+  </si>
+  <si>
+    <t>&lt; Sda nonequal weights</t>
   </si>
 </sst>
 </file>
@@ -771,6 +774,33 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,34 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1344,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A51B62-3CE9-4597-806B-508E76E74799}">
   <dimension ref="A1:BN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2"/>
+    <sheetView tabSelected="1" topLeftCell="U32" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,93 +1398,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="69" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="67" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="65" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="66"/>
-      <c r="V1" s="60" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="AC1" s="69" t="s">
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="AC1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="67" t="s">
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="75" t="s">
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="71" t="s">
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AQ1" s="71"/>
-      <c r="AS1" s="69" t="s">
+      <c r="AQ1" s="60"/>
+      <c r="AS1" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="76" t="s">
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="72" t="s">
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="73" t="s">
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="74" t="s">
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="74"/>
-      <c r="BI1" s="74"/>
-      <c r="BJ1" s="74"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
       <c r="BK1" t="s">
         <v>79</v>
       </c>
@@ -1599,8 +1602,8 @@
       <c r="AO2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
       <c r="AS2" t="s">
         <v>51</v>
       </c>
@@ -3262,11 +3265,11 @@
         <f t="shared" si="7"/>
         <v>0.98581560283687908</v>
       </c>
-      <c r="BK11" s="71" t="s">
+      <c r="BK11" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="71"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
       <c r="BN11" s="27"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.3">
@@ -3449,9 +3452,9 @@
         <f t="shared" si="7"/>
         <v>0.98652482269503528</v>
       </c>
-      <c r="BK12" s="71"/>
-      <c r="BL12" s="71"/>
-      <c r="BM12" s="71"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="60"/>
       <c r="BN12" s="27"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.3">
@@ -3577,9 +3580,9 @@
       <c r="AP13" t="s">
         <v>78</v>
       </c>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="71"/>
+      <c r="BK13" s="60"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="60"/>
       <c r="BN13" s="27"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
@@ -3705,9 +3708,9 @@
       <c r="AP14" t="s">
         <v>47</v>
       </c>
-      <c r="BK14" s="71"/>
-      <c r="BL14" s="71"/>
-      <c r="BM14" s="71"/>
+      <c r="BK14" s="60"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="60"/>
       <c r="BN14" s="27"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
@@ -6509,6 +6512,9 @@
       <c r="AK43" s="20"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="Y44" t="s">
+        <v>89</v>
+      </c>
       <c r="AB44"/>
       <c r="AF44"/>
       <c r="AG44" s="20"/>
@@ -6552,6 +6558,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="BK11:BM14"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AM1"/>
@@ -6562,12 +6574,6 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="V3:V43">
     <cfRule type="colorScale" priority="10">
